--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.275628333333333</v>
+        <v>1.040639</v>
       </c>
       <c r="N2">
-        <v>3.826885</v>
+        <v>3.121917</v>
       </c>
       <c r="O2">
-        <v>0.5972002684751023</v>
+        <v>0.4775850321299971</v>
       </c>
       <c r="P2">
-        <v>0.5972002684751023</v>
+        <v>0.4775850321299971</v>
       </c>
       <c r="Q2">
-        <v>234.7955833239689</v>
+        <v>66.50846887217766</v>
       </c>
       <c r="R2">
-        <v>2113.16024991572</v>
+        <v>598.5762198495989</v>
       </c>
       <c r="S2">
-        <v>0.3888075782706579</v>
+        <v>0.1942781004221886</v>
       </c>
       <c r="T2">
-        <v>0.388807578270658</v>
+        <v>0.1942781004221886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.490554</v>
       </c>
       <c r="O3">
-        <v>0.2326067412468986</v>
+        <v>0.2280221671432956</v>
       </c>
       <c r="P3">
-        <v>0.2326067412468986</v>
+        <v>0.2280221671432955</v>
       </c>
       <c r="Q3">
-        <v>91.45179327465422</v>
+        <v>31.75435615722644</v>
       </c>
       <c r="R3">
-        <v>823.0661394718881</v>
+        <v>285.7892054150379</v>
       </c>
       <c r="S3">
-        <v>0.1514387526726416</v>
+        <v>0.09275775098975884</v>
       </c>
       <c r="T3">
-        <v>0.1514387526726416</v>
+        <v>0.09275775098975884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3635346666666666</v>
+        <v>0.6414703333333333</v>
       </c>
       <c r="N4">
-        <v>1.090604</v>
+        <v>1.924411</v>
       </c>
       <c r="O4">
-        <v>0.1701929902779991</v>
+        <v>0.2943928007267073</v>
       </c>
       <c r="P4">
-        <v>0.1701929902779991</v>
+        <v>0.2943928007267073</v>
       </c>
       <c r="Q4">
-        <v>66.91316889727644</v>
+        <v>40.99712743509077</v>
       </c>
       <c r="R4">
-        <v>602.218520075488</v>
+        <v>368.974146915817</v>
       </c>
       <c r="S4">
-        <v>0.110804244207049</v>
+        <v>0.1197568396314074</v>
       </c>
       <c r="T4">
-        <v>0.110804244207049</v>
+        <v>0.1197568396314074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.275628333333333</v>
+        <v>1.040639</v>
       </c>
       <c r="N5">
-        <v>3.826885</v>
+        <v>3.121917</v>
       </c>
       <c r="O5">
-        <v>0.5972002684751023</v>
+        <v>0.4775850321299971</v>
       </c>
       <c r="P5">
-        <v>0.5972002684751023</v>
+        <v>0.4775850321299971</v>
       </c>
       <c r="Q5">
-        <v>73.27642860300001</v>
+        <v>59.77784233259999</v>
       </c>
       <c r="R5">
-        <v>659.487857427</v>
+        <v>538.0005809933999</v>
       </c>
       <c r="S5">
-        <v>0.121341425362948</v>
+        <v>0.1746172457831589</v>
       </c>
       <c r="T5">
-        <v>0.121341425362948</v>
+        <v>0.1746172457831589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.490554</v>
       </c>
       <c r="O6">
-        <v>0.2326067412468986</v>
+        <v>0.2280221671432956</v>
       </c>
       <c r="P6">
-        <v>0.2326067412468986</v>
+        <v>0.2280221671432955</v>
       </c>
       <c r="Q6">
         <v>28.5408298812</v>
@@ -818,10 +818,10 @@
         <v>256.8674689308</v>
       </c>
       <c r="S6">
-        <v>0.04726192371614082</v>
+        <v>0.0833707091415533</v>
       </c>
       <c r="T6">
-        <v>0.04726192371614082</v>
+        <v>0.08337070914155331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3635346666666666</v>
+        <v>0.6414703333333333</v>
       </c>
       <c r="N7">
-        <v>1.090604</v>
+        <v>1.924411</v>
       </c>
       <c r="O7">
-        <v>0.1701929902779991</v>
+        <v>0.2943928007267073</v>
       </c>
       <c r="P7">
-        <v>0.1701929902779991</v>
+        <v>0.2943928007267073</v>
       </c>
       <c r="Q7">
-        <v>20.8826672712</v>
+        <v>36.8482369458</v>
       </c>
       <c r="R7">
-        <v>187.9440054408</v>
+        <v>331.6341325122</v>
       </c>
       <c r="S7">
-        <v>0.03458046005211353</v>
+        <v>0.1076375023983067</v>
       </c>
       <c r="T7">
-        <v>0.03458046005211353</v>
+        <v>0.1076375023983068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.275628333333333</v>
+        <v>1.040639</v>
       </c>
       <c r="N8">
-        <v>3.826885</v>
+        <v>3.121917</v>
       </c>
       <c r="O8">
-        <v>0.5972002684751023</v>
+        <v>0.4775850321299971</v>
       </c>
       <c r="P8">
-        <v>0.5972002684751023</v>
+        <v>0.4775850321299971</v>
       </c>
       <c r="Q8">
-        <v>52.56906925132056</v>
+        <v>37.208437684625</v>
       </c>
       <c r="R8">
-        <v>473.121623261885</v>
+        <v>334.875939161625</v>
       </c>
       <c r="S8">
-        <v>0.0870512648414964</v>
+        <v>0.1086896859246496</v>
       </c>
       <c r="T8">
-        <v>0.08705126484149643</v>
+        <v>0.1086896859246496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.490554</v>
       </c>
       <c r="O9">
-        <v>0.2326067412468986</v>
+        <v>0.2280221671432956</v>
       </c>
       <c r="P9">
-        <v>0.2326067412468986</v>
+        <v>0.2280221671432955</v>
       </c>
       <c r="Q9">
-        <v>20.47540922939489</v>
+        <v>17.76510574258333</v>
       </c>
       <c r="R9">
-        <v>184.278683064554</v>
+        <v>159.88595168325</v>
       </c>
       <c r="S9">
-        <v>0.03390606485811615</v>
+        <v>0.05189370701198339</v>
       </c>
       <c r="T9">
-        <v>0.03390606485811616</v>
+        <v>0.05189370701198339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3635346666666666</v>
+        <v>0.6414703333333333</v>
       </c>
       <c r="N10">
-        <v>1.090604</v>
+        <v>1.924411</v>
       </c>
       <c r="O10">
-        <v>0.1701929902779991</v>
+        <v>0.2943928007267073</v>
       </c>
       <c r="P10">
-        <v>0.1701929902779991</v>
+        <v>0.2943928007267073</v>
       </c>
       <c r="Q10">
-        <v>14.98138491273378</v>
+        <v>22.93601231970833</v>
       </c>
       <c r="R10">
-        <v>134.832464214604</v>
+        <v>206.424110877375</v>
       </c>
       <c r="S10">
-        <v>0.02480828601883656</v>
+        <v>0.06699845869699317</v>
       </c>
       <c r="T10">
-        <v>0.02480828601883656</v>
+        <v>0.06699845869699317</v>
       </c>
     </row>
   </sheetData>
